--- a/DA/Analysis.xlsx
+++ b/DA/Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://husteduvn-my.sharepoint.com/personal/trung_nk205133_sis_hust_edu_vn/Documents/Documents/A.I/Project-AI/TeamManagement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Project-AI-main\DA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{702B8583-C8BA-4E7B-89ED-FF82048657FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A7A63BB-431A-4CB3-9D98-9343B4C30BD1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5459399E-0883-433C-9FAF-176A7ACE9319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{902010BD-21E1-4634-884A-4CD1D7ACB7D6}"/>
+    <workbookView xWindow="12140" yWindow="660" windowWidth="13670" windowHeight="11260" xr2:uid="{902010BD-21E1-4634-884A-4CD1D7ACB7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeComplexity" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="83">
   <si>
     <t>UCS</t>
   </si>
@@ -75,6 +73,216 @@
   </si>
   <si>
     <t>Ha Noi --&gt; Lao Cai</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Bac Ninh --&gt; Quang Ninh</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Cao Bang --&gt; Dien Bien</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Tuyen Quang --&gt; Hai Duong</t>
+  </si>
+  <si>
+    <t>Hai Phong --&gt; Yen Bai</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Dien Bien --&gt; Ha Noi</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Lang Son --&gt; Nam Dinh</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Nam Dinh --&gt; Lang Son</t>
+  </si>
+  <si>
+    <t>Bac Kan --&gt; Ninh Binh</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Ha Nam --&gt; Lai Chau</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Bac Giang --&gt; Lao Cai</t>
+  </si>
+  <si>
+    <t>Ninh Binh --&gt; Ha Noi</t>
+  </si>
+  <si>
+    <t>Vinh Phuc --&gt; Hai Phong</t>
+  </si>
+  <si>
+    <t>Thai Binh --&gt; Bac Kan</t>
+  </si>
+  <si>
+    <t>Hung Yen --&gt; Quang Ninh</t>
+  </si>
+  <si>
+    <t>Hai Duong --&gt; Lao Cai</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bac Ninh --&gt; Cao Bang</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Quang Ninh --&gt; Ha Noi</t>
+  </si>
+  <si>
+    <t>Phu Tho --&gt; Nam Dinh</t>
+  </si>
+  <si>
+    <t>Thai Nguyen --&gt; Phu Tho</t>
+  </si>
+  <si>
+    <t>Ha Giang --&gt; Bac Ninh</t>
+  </si>
+  <si>
+    <t>Son La --&gt; Nam Dinh</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Lai Chau --&gt; Hai Phong</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hoa Binh --&gt; Lang Son</t>
+  </si>
+  <si>
+    <t>Yen Bai --&gt; Ha Nam</t>
+  </si>
+  <si>
+    <t>Hai Phong --&gt; Vinh Phuc</t>
+  </si>
+  <si>
+    <t>Ha Giang --&gt; Thai Binh</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Lao Cai --&gt; Hung Yen</t>
+  </si>
+  <si>
+    <t>Hai Phong --&gt; Bac Ninh</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Dien Bien --&gt; Bac Giang</t>
+  </si>
+  <si>
+    <t>Ha Giang --&gt; Thai Nguyen</t>
+  </si>
+  <si>
+    <t>Cao Bang --&gt; Tuyen Quang</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Quang Ninh --&gt; Ha Giang</t>
+  </si>
+  <si>
+    <t>Bac Ninh --&gt; Son La</t>
+  </si>
+  <si>
+    <t>Nam Dinh --&gt; Hoa Binh</t>
+  </si>
+  <si>
+    <t>Hai Phong --&gt; Ha Giang</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Dien Bien --&gt; Lang Son</t>
+  </si>
+  <si>
+    <t>Hai Phong --&gt; Lao Cai</t>
+  </si>
+  <si>
+    <t>Ha Noi --&gt; Thai Nguyen</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Thai Binh --&gt; Ha Noi</t>
+  </si>
+  <si>
+    <t>Vinh Phuc --&gt; Ha Noi</t>
+  </si>
+  <si>
+    <t>Ha Noi --&gt; Yen Bai</t>
+  </si>
+  <si>
+    <t>Yen Bai --&gt; Hai Duong</t>
+  </si>
+  <si>
+    <t>Hai Duong --&gt; Ha Nam</t>
+  </si>
+  <si>
+    <t>Ha Nam --&gt; Yen Bai</t>
+  </si>
+  <si>
+    <t>Yen Bai --&gt; Lang Son</t>
+  </si>
+  <si>
+    <t>Lang Son --&gt; Bac Ninh</t>
+  </si>
+  <si>
+    <t>Bac Ninh --&gt; Yen Bai</t>
   </si>
 </sst>
 </file>
@@ -428,15 +636,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D81B87-B625-44AD-893B-EE4F81D9481E}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.6328125" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" customWidth="1"/>
     <col min="2" max="2" width="7.08984375" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.26953125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.08984375" style="1" customWidth="1"/>
@@ -460,8 +668,11 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="2">
+        <v>47</v>
+      </c>
       <c r="C2" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2">
         <v>14</v>
@@ -471,6 +682,9 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="2">
+        <v>9</v>
+      </c>
       <c r="C3" s="2">
         <v>9</v>
       </c>
@@ -482,11 +696,672 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4" s="2">
+        <v>38525</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2">
+        <v>89</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5874</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2">
+        <v>106</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5373</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2">
+        <v>104</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3412</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2">
+        <v>139</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4666499</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2">
+        <v>143570</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2">
+        <v>95</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2">
+        <v>9565</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2">
+        <v>126</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2">
+        <v>450787</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3189</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="2">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2">
+        <v>69</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="2">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="2">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2">
+        <v>617</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2">
+        <v>304</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2">
+        <v>72</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="2">
+        <v>135</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="2">
+        <v>362</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="2">
+        <v>91</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="2">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="2">
+        <v>74</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="2">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="2">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="2">
+        <v>72849</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="2">
+        <v>13782</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="2">
+        <v>44</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="2">
+        <v>222361</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="2">
+        <v>298</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="2">
+        <v>951211</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="2">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="2">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="2">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="2">
+        <v>236</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="2">
+        <v>102</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="2">
+        <v>8</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2973</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="2">
+        <v>83</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="2">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="2">
+        <v>707</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -496,15 +1371,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4839780C-0A92-42C4-9CCA-817E96DCFBD6}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -525,8 +1400,11 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -536,6 +1414,9 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -547,11 +1428,672 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
       <c r="C4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>28</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>19</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>18</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>30</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41">
+        <v>21</v>
+      </c>
+      <c r="C41">
+        <v>29</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>22</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>16</v>
+      </c>
+      <c r="D48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>18</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>11</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>17</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -561,15 +2103,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3B4C25-82DE-4004-97F5-BF52B5295062}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -590,8 +2132,8 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>123.52</v>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -604,8 +2146,8 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>69.94</v>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -626,6 +2168,664 @@
       </c>
       <c r="D4">
         <v>325.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>138.6</v>
+      </c>
+      <c r="C5">
+        <v>138.6</v>
+      </c>
+      <c r="D5">
+        <v>138.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>456.32</v>
+      </c>
+      <c r="C6">
+        <v>482.02</v>
+      </c>
+      <c r="D6">
+        <v>456.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>221.92</v>
+      </c>
+      <c r="C7">
+        <v>234.97</v>
+      </c>
+      <c r="D7">
+        <v>221.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>294.77999999999997</v>
+      </c>
+      <c r="C8">
+        <v>294.77999999999997</v>
+      </c>
+      <c r="D8">
+        <v>294.77999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>371.26</v>
+      </c>
+      <c r="C9">
+        <v>371.26</v>
+      </c>
+      <c r="D9">
+        <v>371.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>242.27</v>
+      </c>
+      <c r="C10">
+        <v>242.27</v>
+      </c>
+      <c r="D10">
+        <v>242.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>242.47</v>
+      </c>
+      <c r="C11">
+        <v>242.47</v>
+      </c>
+      <c r="D11">
+        <v>242.47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>272.77999999999997</v>
+      </c>
+      <c r="C12">
+        <v>272.77999999999997</v>
+      </c>
+      <c r="D12">
+        <v>272.77999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>454.65</v>
+      </c>
+      <c r="C13">
+        <v>478.09</v>
+      </c>
+      <c r="D13">
+        <v>454.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>369.68</v>
+      </c>
+      <c r="C14">
+        <v>369.68</v>
+      </c>
+      <c r="D14">
+        <v>369.68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>110.3</v>
+      </c>
+      <c r="C15">
+        <v>110.3</v>
+      </c>
+      <c r="D15">
+        <v>110.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>185.42</v>
+      </c>
+      <c r="C16">
+        <v>217.49</v>
+      </c>
+      <c r="D16">
+        <v>185.42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>275.58</v>
+      </c>
+      <c r="C17">
+        <v>306.57</v>
+      </c>
+      <c r="D17">
+        <v>275.58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18">
+        <v>144.46</v>
+      </c>
+      <c r="C18">
+        <v>153.18</v>
+      </c>
+      <c r="D18">
+        <v>144.46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>403.09</v>
+      </c>
+      <c r="C19">
+        <v>403.09</v>
+      </c>
+      <c r="D19">
+        <v>403.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>247.97</v>
+      </c>
+      <c r="C20">
+        <v>247.97</v>
+      </c>
+      <c r="D20">
+        <v>247.97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>169.77</v>
+      </c>
+      <c r="C21">
+        <v>169.77</v>
+      </c>
+      <c r="D21">
+        <v>169.77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>182.92</v>
+      </c>
+      <c r="C22">
+        <v>182.92</v>
+      </c>
+      <c r="D22">
+        <v>182.92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>89.91</v>
+      </c>
+      <c r="C23">
+        <v>89.91</v>
+      </c>
+      <c r="D23">
+        <v>89.91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>313.45999999999998</v>
+      </c>
+      <c r="C24">
+        <v>328.97</v>
+      </c>
+      <c r="D24">
+        <v>313.45999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>306.20999999999998</v>
+      </c>
+      <c r="C25">
+        <v>332.18</v>
+      </c>
+      <c r="D25">
+        <v>306.20999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>514.47</v>
+      </c>
+      <c r="C26">
+        <v>546.54</v>
+      </c>
+      <c r="D26">
+        <v>514.47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27">
+        <v>222.89</v>
+      </c>
+      <c r="C27">
+        <v>222.89</v>
+      </c>
+      <c r="D27">
+        <v>222.89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>234.96</v>
+      </c>
+      <c r="C28">
+        <v>234.96</v>
+      </c>
+      <c r="D28">
+        <v>234.96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29">
+        <v>185.42</v>
+      </c>
+      <c r="C29">
+        <v>185.42</v>
+      </c>
+      <c r="D29">
+        <v>185.42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>395.24</v>
+      </c>
+      <c r="C30">
+        <v>411.76</v>
+      </c>
+      <c r="D30">
+        <v>395.24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31">
+        <v>381.65</v>
+      </c>
+      <c r="C31">
+        <v>381.65</v>
+      </c>
+      <c r="D31">
+        <v>381.65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32">
+        <v>92.2</v>
+      </c>
+      <c r="C32">
+        <v>92.2</v>
+      </c>
+      <c r="D32">
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33">
+        <v>473.03</v>
+      </c>
+      <c r="C33">
+        <v>473.03</v>
+      </c>
+      <c r="D33">
+        <v>473.03</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34">
+        <v>220.63</v>
+      </c>
+      <c r="C34">
+        <v>220.63</v>
+      </c>
+      <c r="D34">
+        <v>220.63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35">
+        <v>170.03</v>
+      </c>
+      <c r="C35">
+        <v>170.03</v>
+      </c>
+      <c r="D35">
+        <v>170.03</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36">
+        <v>408.8</v>
+      </c>
+      <c r="C36">
+        <v>483.13</v>
+      </c>
+      <c r="D36">
+        <v>408.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37">
+        <v>292.48</v>
+      </c>
+      <c r="C37">
+        <v>305.74</v>
+      </c>
+      <c r="D37">
+        <v>292.48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38">
+        <v>115</v>
+      </c>
+      <c r="C38">
+        <v>115</v>
+      </c>
+      <c r="D38">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39">
+        <v>405.66</v>
+      </c>
+      <c r="C39">
+        <v>418.71</v>
+      </c>
+      <c r="D39">
+        <v>405.66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40">
+        <v>483.84</v>
+      </c>
+      <c r="C40">
+        <v>505.11</v>
+      </c>
+      <c r="D40">
+        <v>483.84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41">
+        <v>448.97</v>
+      </c>
+      <c r="C41">
+        <v>448.97</v>
+      </c>
+      <c r="D41">
+        <v>448.97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42">
+        <v>74.56</v>
+      </c>
+      <c r="C42">
+        <v>74.56</v>
+      </c>
+      <c r="D42">
+        <v>74.56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43">
+        <v>113.1</v>
+      </c>
+      <c r="C43">
+        <v>113.1</v>
+      </c>
+      <c r="D43">
+        <v>113.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44">
+        <v>61.9</v>
+      </c>
+      <c r="C44">
+        <v>61.9</v>
+      </c>
+      <c r="D44">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45">
+        <v>171.26</v>
+      </c>
+      <c r="C45">
+        <v>171.26</v>
+      </c>
+      <c r="D45">
+        <v>171.26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46">
+        <v>248.9</v>
+      </c>
+      <c r="C46">
+        <v>248.9</v>
+      </c>
+      <c r="D46">
+        <v>248.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47">
+        <v>71.760000000000005</v>
+      </c>
+      <c r="C47">
+        <v>71.760000000000005</v>
+      </c>
+      <c r="D47">
+        <v>71.760000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48">
+        <v>234.96</v>
+      </c>
+      <c r="C48">
+        <v>244.43</v>
+      </c>
+      <c r="D48">
+        <v>234.96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49">
+        <v>243.27</v>
+      </c>
+      <c r="C49">
+        <v>243.27</v>
+      </c>
+      <c r="D49">
+        <v>243.27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50">
+        <v>121.78</v>
+      </c>
+      <c r="C50">
+        <v>121.78</v>
+      </c>
+      <c r="D50">
+        <v>121.78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51">
+        <v>202.58</v>
+      </c>
+      <c r="C51">
+        <v>202.58</v>
+      </c>
+      <c r="D51">
+        <v>202.58</v>
       </c>
     </row>
   </sheetData>

--- a/DA/Analysis.xlsx
+++ b/DA/Analysis.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Project-AI-main\DA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trung\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5459399E-0883-433C-9FAF-176A7ACE9319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3075988C-8E99-4DF2-9148-980D53893290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12140" yWindow="660" windowWidth="13670" windowHeight="11260" xr2:uid="{902010BD-21E1-4634-884A-4CD1D7ACB7D6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{902010BD-21E1-4634-884A-4CD1D7ACB7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeComplexity" sheetId="1" r:id="rId1"/>
     <sheet name="SpaceComplexity" sheetId="2" r:id="rId2"/>
     <sheet name="RouteCost" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TimeComplexity!$A$1:$D$51</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="60">
   <si>
     <t>UCS</t>
   </si>
@@ -54,9 +57,6 @@
     <t>Ha Noi --&gt; Hoa Binh</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -81,66 +81,30 @@
     <t>Bac Ninh --&gt; Quang Ninh</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>Cao Bang --&gt; Dien Bien</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>Tuyen Quang --&gt; Hai Duong</t>
   </si>
   <si>
     <t>Hai Phong --&gt; Yen Bai</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>Dien Bien --&gt; Ha Noi</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Lang Son --&gt; Nam Dinh</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>Nam Dinh --&gt; Lang Son</t>
   </si>
   <si>
     <t>Bac Kan --&gt; Ninh Binh</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>Ha Nam --&gt; Lai Chau</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>Bac Giang --&gt; Lao Cai</t>
   </si>
   <si>
@@ -159,15 +123,9 @@
     <t>Hai Duong --&gt; Lao Cai</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>Bac Ninh --&gt; Cao Bang</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>Quang Ninh --&gt; Ha Noi</t>
   </si>
   <si>
@@ -183,15 +141,9 @@
     <t>Son La --&gt; Nam Dinh</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>Lai Chau --&gt; Hai Phong</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>Hoa Binh --&gt; Lang Son</t>
   </si>
   <si>
@@ -204,18 +156,12 @@
     <t>Ha Giang --&gt; Thai Binh</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>Lao Cai --&gt; Hung Yen</t>
   </si>
   <si>
     <t>Hai Phong --&gt; Bac Ninh</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Dien Bien --&gt; Bac Giang</t>
   </si>
   <si>
@@ -225,12 +171,6 @@
     <t>Cao Bang --&gt; Tuyen Quang</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>Quang Ninh --&gt; Ha Giang</t>
   </si>
   <si>
@@ -243,9 +183,6 @@
     <t>Hai Phong --&gt; Ha Giang</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>Dien Bien --&gt; Lang Son</t>
   </si>
   <si>
@@ -253,9 +190,6 @@
   </si>
   <si>
     <t>Ha Noi --&gt; Thai Nguyen</t>
-  </si>
-  <si>
-    <t>29</t>
   </si>
   <si>
     <t>Thai Binh --&gt; Ha Noi</t>
@@ -318,10 +252,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,734 +584,740 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D81B87-B625-44AD-893B-EE4F81D9481E}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.26953125" customWidth="1"/>
-    <col min="2" max="2" width="7.08984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="6">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="6">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="6">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="6">
+        <v>44</v>
+      </c>
+      <c r="C5" s="6">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="6">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6">
+        <v>89</v>
+      </c>
+      <c r="C10" s="6">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="6">
+        <v>31</v>
+      </c>
+      <c r="C11" s="6">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="6">
+        <v>42</v>
+      </c>
+      <c r="C12" s="6">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="6">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="6">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6">
+        <v>11</v>
+      </c>
+      <c r="D14" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="6">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="6">
+        <v>126</v>
+      </c>
+      <c r="C16" s="6">
+        <v>11</v>
+      </c>
+      <c r="D16" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6">
+        <v>31</v>
+      </c>
+      <c r="C17" s="6">
+        <v>11</v>
+      </c>
+      <c r="D17" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="6">
+        <v>45</v>
+      </c>
+      <c r="C18" s="6">
+        <v>12</v>
+      </c>
+      <c r="D18" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6">
+        <v>5874</v>
+      </c>
+      <c r="C19" s="6">
+        <v>13</v>
+      </c>
+      <c r="D19" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="6">
+        <v>236</v>
+      </c>
+      <c r="C20" s="6">
+        <v>14</v>
+      </c>
+      <c r="D20" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="6">
+        <v>3189</v>
+      </c>
+      <c r="C21" s="6">
+        <v>14</v>
+      </c>
+      <c r="D21" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6">
+        <v>4666499</v>
+      </c>
+      <c r="C22" s="6">
+        <v>15</v>
+      </c>
+      <c r="D22" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2973</v>
+      </c>
+      <c r="C23" s="6">
+        <v>16</v>
+      </c>
+      <c r="D23" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="6">
+        <v>707</v>
+      </c>
+      <c r="C24" s="6">
+        <v>17</v>
+      </c>
+      <c r="D24" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="6">
+        <v>13782</v>
+      </c>
+      <c r="C25" s="6">
+        <v>17</v>
+      </c>
+      <c r="D25" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="6">
+        <v>83</v>
+      </c>
+      <c r="C26" s="6">
+        <v>18</v>
+      </c>
+      <c r="D26" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="6">
+        <v>304</v>
+      </c>
+      <c r="C27" s="6">
+        <v>18</v>
+      </c>
+      <c r="D27" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="6">
+        <v>3412</v>
+      </c>
+      <c r="C28" s="6">
+        <v>18</v>
+      </c>
+      <c r="D28" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="6">
+        <v>72849</v>
+      </c>
+      <c r="C29" s="6">
+        <v>18</v>
+      </c>
+      <c r="D29" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="6">
+        <v>135</v>
+      </c>
+      <c r="C30" s="6">
+        <v>19</v>
+      </c>
+      <c r="D30" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B31" s="6">
         <v>47</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C31" s="6">
         <v>19</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D31" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6">
+        <v>69</v>
+      </c>
+      <c r="C32" s="6">
+        <v>19</v>
+      </c>
+      <c r="D32" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="6">
+        <v>74</v>
+      </c>
+      <c r="C33" s="6">
+        <v>19</v>
+      </c>
+      <c r="D33" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="6">
+        <v>72</v>
+      </c>
+      <c r="C34" s="6">
+        <v>19</v>
+      </c>
+      <c r="D34" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="6">
         <v>38525</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C35" s="6">
+        <v>19</v>
+      </c>
+      <c r="D35" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="6">
+        <v>104</v>
+      </c>
+      <c r="C36" s="6">
+        <v>20</v>
+      </c>
+      <c r="D36" s="6">
         <v>14</v>
       </c>
-      <c r="B5" s="2">
-        <v>89</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="6">
+        <v>298</v>
+      </c>
+      <c r="C37" s="6">
+        <v>20</v>
+      </c>
+      <c r="D37" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="6">
+        <v>58</v>
+      </c>
+      <c r="C38" s="6">
+        <v>21</v>
+      </c>
+      <c r="D38" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="6">
+        <v>91</v>
+      </c>
+      <c r="C39" s="6">
+        <v>21</v>
+      </c>
+      <c r="D39" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="6">
+        <v>95</v>
+      </c>
+      <c r="C40" s="6">
+        <v>22</v>
+      </c>
+      <c r="D40" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="6">
+        <v>139</v>
+      </c>
+      <c r="C41" s="6">
+        <v>22</v>
+      </c>
+      <c r="D41" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="6">
+        <v>102</v>
+      </c>
+      <c r="C42" s="6">
+        <v>22</v>
+      </c>
+      <c r="D42" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B43" s="6">
+        <v>106</v>
+      </c>
+      <c r="C43" s="6">
+        <v>23</v>
+      </c>
+      <c r="D43" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="6">
+        <v>9565</v>
+      </c>
+      <c r="C44" s="6">
+        <v>23</v>
+      </c>
+      <c r="D44" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="6">
+        <v>143570</v>
+      </c>
+      <c r="C45" s="6">
+        <v>23</v>
+      </c>
+      <c r="D45" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2">
-        <v>5874</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2">
-        <v>106</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B46" s="6">
+        <v>5373</v>
+      </c>
+      <c r="C46" s="6">
+        <v>24</v>
+      </c>
+      <c r="D46" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="6">
+        <v>450787</v>
+      </c>
+      <c r="C47" s="6">
+        <v>27</v>
+      </c>
+      <c r="D47" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="6">
+        <v>362</v>
+      </c>
+      <c r="C48" s="6">
+        <v>28</v>
+      </c>
+      <c r="D48" s="6">
         <v>22</v>
       </c>
-      <c r="B8" s="2">
-        <v>5373</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="6">
+        <v>951211</v>
+      </c>
+      <c r="C49" s="6">
+        <v>29</v>
+      </c>
+      <c r="D49" s="6">
         <v>24</v>
       </c>
-      <c r="B9" s="2">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2">
-        <v>104</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="2">
-        <v>3412</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="6">
+        <v>222361</v>
+      </c>
+      <c r="C50" s="6">
         <v>30</v>
       </c>
-      <c r="B12" s="2">
-        <v>139</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="D50" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="6">
+        <v>617</v>
+      </c>
+      <c r="C51" s="6">
         <v>32</v>
       </c>
-      <c r="B13" s="2">
-        <v>4666499</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="2">
-        <v>143570</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="2">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="2">
-        <v>95</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="2">
-        <v>9565</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="2">
-        <v>126</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="2">
-        <v>450787</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3189</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="2">
-        <v>31</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="2">
-        <v>69</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="2">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="2">
-        <v>58</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="2">
-        <v>45</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="2">
-        <v>617</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="2">
-        <v>304</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="2">
-        <v>72</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="2">
-        <v>135</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="2">
-        <v>362</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="2">
-        <v>91</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="2">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="2">
-        <v>74</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="2">
-        <v>10</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="2">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="2">
-        <v>72849</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="2">
-        <v>13782</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="2">
-        <v>44</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="2">
-        <v>222361</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="2">
-        <v>298</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="2">
-        <v>951211</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="2">
-        <v>12</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="2">
-        <v>42</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="2">
-        <v>4</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="2">
-        <v>236</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="2">
-        <v>102</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" s="2">
-        <v>8</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="2">
-        <v>2973</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" s="2">
-        <v>83</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" s="2">
-        <v>4</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51" s="2">
-        <v>707</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>17</v>
+      <c r="D51" s="6">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D51" xr:uid="{94D81B87-B625-44AD-893B-EE4F81D9481E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D51">
+      <sortCondition ref="C1:C51"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1404,10 +1356,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1418,15 +1370,15 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>16</v>
@@ -1440,7 +1392,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -1454,7 +1406,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -1468,7 +1420,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -1482,7 +1434,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -1496,7 +1448,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -1510,7 +1462,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1524,7 +1476,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>13</v>
@@ -1538,7 +1490,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -1552,7 +1504,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>23</v>
@@ -1566,7 +1518,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>19</v>
@@ -1580,7 +1532,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -1594,7 +1546,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -1608,7 +1560,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -1622,7 +1574,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -1636,7 +1588,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -1650,7 +1602,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>13</v>
@@ -1664,7 +1616,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -1678,7 +1630,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -1692,7 +1644,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -1706,7 +1658,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -1720,7 +1672,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -1734,7 +1686,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>10</v>
@@ -1748,7 +1700,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>9</v>
@@ -1762,7 +1714,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>7</v>
@@ -1776,7 +1728,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>9</v>
@@ -1790,7 +1742,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>9</v>
@@ -1804,7 +1756,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>7</v>
@@ -1818,7 +1770,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -1832,7 +1784,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -1846,7 +1798,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -1860,7 +1812,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -1874,7 +1826,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>18</v>
@@ -1888,7 +1840,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>15</v>
@@ -1902,7 +1854,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>7</v>
@@ -1916,7 +1868,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>19</v>
@@ -1930,7 +1882,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B40">
         <v>9</v>
@@ -1944,7 +1896,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B41">
         <v>21</v>
@@ -1958,7 +1910,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -1972,7 +1924,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B43">
         <v>7</v>
@@ -1986,7 +1938,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -2000,7 +1952,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>9</v>
@@ -2014,7 +1966,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -2028,7 +1980,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -2042,7 +1994,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B48">
         <v>12</v>
@@ -2056,7 +2008,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B49">
         <v>7</v>
@@ -2070,7 +2022,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -2084,7 +2036,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B51">
         <v>11</v>
@@ -2133,13 +2085,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -2147,18 +2099,18 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>325.45</v>
@@ -2172,7 +2124,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>138.6</v>
@@ -2186,7 +2138,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>456.32</v>
@@ -2200,7 +2152,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>221.92</v>
@@ -2214,7 +2166,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>294.77999999999997</v>
@@ -2228,7 +2180,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>371.26</v>
@@ -2242,7 +2194,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>242.27</v>
@@ -2256,7 +2208,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>242.47</v>
@@ -2270,7 +2222,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>272.77999999999997</v>
@@ -2284,7 +2236,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>454.65</v>
@@ -2298,7 +2250,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>369.68</v>
@@ -2312,7 +2264,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>110.3</v>
@@ -2326,7 +2278,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>185.42</v>
@@ -2340,7 +2292,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>275.58</v>
@@ -2354,7 +2306,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>144.46</v>
@@ -2368,7 +2320,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>403.09</v>
@@ -2382,7 +2334,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>247.97</v>
@@ -2396,7 +2348,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>169.77</v>
@@ -2410,7 +2362,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>182.92</v>
@@ -2424,7 +2376,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>89.91</v>
@@ -2438,7 +2390,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>313.45999999999998</v>
@@ -2452,7 +2404,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>306.20999999999998</v>
@@ -2466,7 +2418,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>514.47</v>
@@ -2480,7 +2432,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>222.89</v>
@@ -2494,7 +2446,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>234.96</v>
@@ -2508,7 +2460,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>185.42</v>
@@ -2522,7 +2474,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>395.24</v>
@@ -2536,7 +2488,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>381.65</v>
@@ -2550,7 +2502,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>92.2</v>
@@ -2564,7 +2516,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>473.03</v>
@@ -2578,7 +2530,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>220.63</v>
@@ -2592,7 +2544,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>170.03</v>
@@ -2606,7 +2558,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>408.8</v>
@@ -2620,7 +2572,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>292.48</v>
@@ -2634,7 +2586,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>115</v>
@@ -2648,7 +2600,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>405.66</v>
@@ -2662,7 +2614,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B40">
         <v>483.84</v>
@@ -2676,7 +2628,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B41">
         <v>448.97</v>
@@ -2690,7 +2642,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>74.56</v>
@@ -2704,7 +2656,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B43">
         <v>113.1</v>
@@ -2718,7 +2670,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B44">
         <v>61.9</v>
@@ -2732,7 +2684,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>171.26</v>
@@ -2746,7 +2698,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B46">
         <v>248.9</v>
@@ -2760,7 +2712,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B47">
         <v>71.760000000000005</v>
@@ -2774,7 +2726,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B48">
         <v>234.96</v>
@@ -2788,7 +2740,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B49">
         <v>243.27</v>
@@ -2802,7 +2754,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B50">
         <v>121.78</v>
@@ -2816,7 +2768,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B51">
         <v>202.58</v>

--- a/DA/Analysis.xlsx
+++ b/DA/Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://husteduvn-my.sharepoint.com/personal/trung_nk205133_sis_hust_edu_vn/Documents/Documents/A.I/Project-AI/DA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Python\Project-AI\DA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{45C7B069-E502-42C9-8C61-9BC7009A596F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6949517-CD8A-44B3-BCDB-A6DBE99E1AE4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38221608-C30E-48E4-A788-FBC94B6B7093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{902010BD-21E1-4634-884A-4CD1D7ACB7D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{902010BD-21E1-4634-884A-4CD1D7ACB7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeComplexity" sheetId="1" r:id="rId1"/>
@@ -3220,19 +3220,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D81B87-B625-44AD-893B-EE4F81D9481E}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -3246,12 +3246,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="6">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6">
         <v>5</v>
@@ -3260,12 +3260,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="6">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C3" s="6">
         <v>5</v>
@@ -3274,12 +3274,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="6">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C4" s="6">
         <v>9</v>
@@ -3288,12 +3288,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="6">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="C5" s="6">
         <v>9</v>
@@ -3302,12 +3302,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="6">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C6" s="6">
         <v>10</v>
@@ -3316,12 +3316,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="6">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="C7" s="6">
         <v>10</v>
@@ -3330,12 +3330,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="6">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C8" s="6">
         <v>9</v>
@@ -3344,12 +3344,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="6">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="C9" s="6">
         <v>9</v>
@@ -3358,12 +3358,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="6">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C10" s="6">
         <v>9</v>
@@ -3372,12 +3372,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="6">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C11" s="6">
         <v>11</v>
@@ -3386,12 +3386,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="6">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C12" s="6">
         <v>11</v>
@@ -3400,12 +3400,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="6">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C13" s="6">
         <v>11</v>
@@ -3414,12 +3414,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="6">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C14" s="6">
         <v>11</v>
@@ -3428,12 +3428,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="6">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="C15" s="6">
         <v>10</v>
@@ -3442,12 +3442,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="6">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C16" s="6">
         <v>10</v>
@@ -3456,12 +3456,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="6">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C17" s="6">
         <v>11</v>
@@ -3470,12 +3470,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="6">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="C18" s="6">
         <v>12</v>
@@ -3484,12 +3484,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="6">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="C19" s="6">
         <v>14</v>
@@ -3498,12 +3498,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="6">
-        <v>707</v>
+        <v>207</v>
       </c>
       <c r="C20" s="6">
         <v>17</v>
@@ -3512,12 +3512,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="6">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="C21" s="6">
         <v>19</v>
@@ -3526,12 +3526,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="6">
-        <v>13782</v>
+        <v>307</v>
       </c>
       <c r="C22" s="6">
         <v>17</v>
@@ -3540,12 +3540,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="6">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="C23" s="6">
         <v>18</v>
@@ -3554,12 +3554,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="6">
-        <v>304</v>
+        <v>195</v>
       </c>
       <c r="C24" s="6">
         <v>18</v>
@@ -3568,12 +3568,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="6">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="C25" s="6">
         <v>19</v>
@@ -3582,12 +3582,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="6">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="C26" s="6">
         <v>20</v>
@@ -3596,12 +3596,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="6">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="C27" s="6">
         <v>19</v>
@@ -3610,12 +3610,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="6">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="C28" s="6">
         <v>19</v>
@@ -3624,12 +3624,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="6">
-        <v>5874</v>
+        <v>265</v>
       </c>
       <c r="C29" s="6">
         <v>13</v>
@@ -3638,12 +3638,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B30" s="6">
-        <v>2973</v>
+        <v>293</v>
       </c>
       <c r="C30" s="6">
         <v>16</v>
@@ -3652,12 +3652,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="6">
-        <v>3412</v>
+        <v>343</v>
       </c>
       <c r="C31" s="6">
         <v>18</v>
@@ -3666,12 +3666,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B32" s="6">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="C32" s="6">
         <v>20</v>
@@ -3680,12 +3680,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="6">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="C33" s="6">
         <v>22</v>
@@ -3694,12 +3694,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B34" s="6">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="C34" s="6">
         <v>22</v>
@@ -3708,12 +3708,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="6">
-        <v>5373</v>
+        <v>389</v>
       </c>
       <c r="C35" s="6">
         <v>24</v>
@@ -3722,12 +3722,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="6">
-        <v>3189</v>
+        <v>293</v>
       </c>
       <c r="C36" s="6">
         <v>14</v>
@@ -3736,12 +3736,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="6">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="C37" s="6">
         <v>21</v>
@@ -3750,12 +3750,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B38" s="6">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="C38" s="6">
         <v>19</v>
@@ -3764,12 +3764,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="6">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="C39" s="6">
         <v>21</v>
@@ -3778,12 +3778,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="6">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="C40" s="6">
         <v>23</v>
@@ -3792,12 +3792,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="6">
-        <v>9565</v>
+        <v>499</v>
       </c>
       <c r="C41" s="6">
         <v>23</v>
@@ -3806,12 +3806,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B42" s="6">
-        <v>102</v>
+        <v>209</v>
       </c>
       <c r="C42" s="6">
         <v>22</v>
@@ -3820,12 +3820,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="6">
-        <v>72849</v>
+        <v>793</v>
       </c>
       <c r="C43" s="6">
         <v>18</v>
@@ -3834,12 +3834,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B44" s="6">
-        <v>38525</v>
+        <v>311</v>
       </c>
       <c r="C44" s="6">
         <v>19</v>
@@ -3848,12 +3848,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B45" s="6">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="C45" s="6">
         <v>28</v>
@@ -3862,12 +3862,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="6">
-        <v>222361</v>
+        <v>631</v>
       </c>
       <c r="C46" s="6">
         <v>30</v>
@@ -3876,12 +3876,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B47" s="6">
-        <v>143570</v>
+        <v>469</v>
       </c>
       <c r="C47" s="6">
         <v>23</v>
@@ -3890,12 +3890,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B48" s="6">
-        <v>450787</v>
+        <v>579</v>
       </c>
       <c r="C48" s="6">
         <v>27</v>
@@ -3904,12 +3904,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="6">
-        <v>951211</v>
+        <v>727</v>
       </c>
       <c r="C49" s="6">
         <v>29</v>
@@ -3918,12 +3918,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B50" s="6">
-        <v>617</v>
+        <v>377</v>
       </c>
       <c r="C50" s="6">
         <v>32</v>
@@ -3952,12 +3952,12 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>49</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>40</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>43</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>48</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>45</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>41</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>55</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>39</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>52</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>14</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>5</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>47</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>34</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>11</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>22</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>3</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>21</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>15</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>31</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>42</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>24</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>18</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>54</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>27</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>36</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>38</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>50</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>32</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>56</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>25</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>13</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>19</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>29</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>12</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>17</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>35</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>53</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>33</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>51</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>9</v>
       </c>
@@ -4690,13 +4690,13 @@
       <selection activeCell="H41" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="21.5546875" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>325.45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>138.6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>456.32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>221.92</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>294.77999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>371.26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>242.27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>242.47</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>272.77999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>454.65</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>369.68</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>110.3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>185.42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>275.58</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>144.46</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>403.09</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>247.97</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>169.77</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>182.92</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>89.91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>313.45999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>306.20999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>514.47</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>222.89</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>234.96</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>185.42</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>395.24</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>381.65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>92.2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>473.03</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>220.63</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>170.03</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>408.8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>292.48</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>405.66</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>483.84</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>448.97</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>74.56</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>48</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>113.1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>50</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>171.26</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>51</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>248.9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>71.760000000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>53</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>234.96</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>243.27</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>55</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>121.78</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>

--- a/DA/Analysis.xlsx
+++ b/DA/Analysis.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive - Hanoi University of Science and Technology\Documents\A.I\Project-AI\DA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://husteduvn-my.sharepoint.com/personal/trung_nk205133_sis_hust_edu_vn/Documents/Documents/A.I/Project-AI/DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_9542E3A5987E507AAA65781F46FB76D1426D41AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A5BC17F-168E-4909-87DE-0BD955C810F3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="12180"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeComplexity" sheetId="1" r:id="rId1"/>
+    <sheet name="SpaceComplexity" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TimeComplexity!$A$1:$D$49</definedName>
@@ -22,19 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
   <si>
     <t>UCS</t>
   </si>
@@ -195,7 +190,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -554,22 +549,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -583,7 +578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -597,7 +592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>50</v>
       </c>
@@ -611,7 +606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -625,7 +620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -639,7 +634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>47</v>
       </c>
@@ -653,7 +648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -667,7 +662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
@@ -681,7 +676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -695,7 +690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -709,7 +704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -723,7 +718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
@@ -737,7 +732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -751,7 +746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -765,7 +760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -779,7 +774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -793,7 +788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -807,7 +802,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -821,7 +816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -835,7 +830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
@@ -849,7 +844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
@@ -863,7 +858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -877,7 +872,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -891,7 +886,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -905,7 +900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -919,7 +914,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
@@ -933,7 +928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>45</v>
       </c>
@@ -947,7 +942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -961,7 +956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
@@ -975,7 +970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
@@ -989,7 +984,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
@@ -1003,7 +998,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>51</v>
       </c>
@@ -1017,7 +1012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>46</v>
       </c>
@@ -1031,7 +1026,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>40</v>
       </c>
@@ -1045,7 +1040,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -1059,7 +1054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>48</v>
       </c>
@@ -1073,7 +1068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>20</v>
       </c>
@@ -1087,7 +1082,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
@@ -1101,7 +1096,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
@@ -1115,7 +1110,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>6</v>
       </c>
@@ -1129,7 +1124,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>13</v>
       </c>
@@ -1143,7 +1138,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>26</v>
       </c>
@@ -1157,7 +1152,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
@@ -1171,7 +1166,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>15</v>
       </c>
@@ -1185,7 +1180,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>18</v>
       </c>
@@ -1199,7 +1194,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>19</v>
       </c>
@@ -1213,7 +1208,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>39</v>
       </c>
@@ -1227,7 +1222,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>41</v>
       </c>
@@ -1241,7 +1236,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>36</v>
       </c>
@@ -1256,12 +1251,713 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D49">
-    <sortState ref="A2:D49">
+  <autoFilter ref="A1:D49" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D49">
       <sortCondition ref="B1:B49"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C66C481-CDB1-4EB6-9A56-93D99B52FDA6}">
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="6">
+        <v>29</v>
+      </c>
+      <c r="C2" s="6">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="6">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="6">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="6">
+        <v>35</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="6">
+        <v>49</v>
+      </c>
+      <c r="C6" s="6">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6">
+        <v>53</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6">
+        <v>53</v>
+      </c>
+      <c r="C8" s="6">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6">
+        <v>59</v>
+      </c>
+      <c r="C9" s="6">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6">
+        <v>59</v>
+      </c>
+      <c r="C10" s="6">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="6">
+        <v>65</v>
+      </c>
+      <c r="C11" s="6">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="6">
+        <v>79</v>
+      </c>
+      <c r="C12" s="6">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6">
+        <v>83</v>
+      </c>
+      <c r="C13" s="6">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="6">
+        <v>99</v>
+      </c>
+      <c r="C14" s="6">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="6">
+        <v>101</v>
+      </c>
+      <c r="C15" s="6">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="6">
+        <v>131</v>
+      </c>
+      <c r="C16" s="6">
+        <v>19</v>
+      </c>
+      <c r="D16" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="6">
+        <v>133</v>
+      </c>
+      <c r="C17" s="6">
+        <v>21</v>
+      </c>
+      <c r="D17" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="6">
+        <v>135</v>
+      </c>
+      <c r="C18" s="6">
+        <v>12</v>
+      </c>
+      <c r="D18" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="6">
+        <v>147</v>
+      </c>
+      <c r="C19" s="6">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="6">
+        <v>147</v>
+      </c>
+      <c r="C20" s="6">
+        <v>19</v>
+      </c>
+      <c r="D20" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="6">
+        <v>153</v>
+      </c>
+      <c r="C21" s="6">
+        <v>19</v>
+      </c>
+      <c r="D21" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="6">
+        <v>177</v>
+      </c>
+      <c r="C22" s="6">
+        <v>19</v>
+      </c>
+      <c r="D22" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="6">
+        <v>185</v>
+      </c>
+      <c r="C23" s="6">
+        <v>22</v>
+      </c>
+      <c r="D23" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6">
+        <v>187</v>
+      </c>
+      <c r="C24" s="6">
+        <v>19</v>
+      </c>
+      <c r="D24" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="6">
+        <v>187</v>
+      </c>
+      <c r="C25" s="6">
+        <v>21</v>
+      </c>
+      <c r="D25" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="6">
+        <v>189</v>
+      </c>
+      <c r="C26" s="6">
+        <v>18</v>
+      </c>
+      <c r="D26" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="6">
+        <v>195</v>
+      </c>
+      <c r="C27" s="6">
+        <v>14</v>
+      </c>
+      <c r="D27" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6">
+        <v>195</v>
+      </c>
+      <c r="C28" s="6">
+        <v>18</v>
+      </c>
+      <c r="D28" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="6">
+        <v>195</v>
+      </c>
+      <c r="C29" s="6">
+        <v>20</v>
+      </c>
+      <c r="D29" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="6">
+        <v>197</v>
+      </c>
+      <c r="C30" s="6">
+        <v>22</v>
+      </c>
+      <c r="D30" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="6">
+        <v>201</v>
+      </c>
+      <c r="C31" s="6">
+        <v>23</v>
+      </c>
+      <c r="D31" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="6">
+        <v>207</v>
+      </c>
+      <c r="C32" s="6">
+        <v>17</v>
+      </c>
+      <c r="D32" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="6">
+        <v>209</v>
+      </c>
+      <c r="C33" s="6">
+        <v>22</v>
+      </c>
+      <c r="D33" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="6">
+        <v>235</v>
+      </c>
+      <c r="C34" s="6">
+        <v>20</v>
+      </c>
+      <c r="D34" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="6">
+        <v>265</v>
+      </c>
+      <c r="C35" s="6">
+        <v>13</v>
+      </c>
+      <c r="D35" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="6">
+        <v>293</v>
+      </c>
+      <c r="C36" s="6">
+        <v>16</v>
+      </c>
+      <c r="D36" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="6">
+        <v>293</v>
+      </c>
+      <c r="C37" s="6">
+        <v>14</v>
+      </c>
+      <c r="D37" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="6">
+        <v>305</v>
+      </c>
+      <c r="C38" s="6">
+        <v>28</v>
+      </c>
+      <c r="D38" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="6">
+        <v>307</v>
+      </c>
+      <c r="C39" s="6">
+        <v>17</v>
+      </c>
+      <c r="D39" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="6">
+        <v>311</v>
+      </c>
+      <c r="C40" s="6">
+        <v>19</v>
+      </c>
+      <c r="D40" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="6">
+        <v>343</v>
+      </c>
+      <c r="C41" s="6">
+        <v>18</v>
+      </c>
+      <c r="D41" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="6">
+        <v>377</v>
+      </c>
+      <c r="C42" s="6">
+        <v>32</v>
+      </c>
+      <c r="D42" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="6">
+        <v>389</v>
+      </c>
+      <c r="C43" s="6">
+        <v>24</v>
+      </c>
+      <c r="D43" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="6">
+        <v>469</v>
+      </c>
+      <c r="C44" s="6">
+        <v>23</v>
+      </c>
+      <c r="D44" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="6">
+        <v>499</v>
+      </c>
+      <c r="C45" s="6">
+        <v>23</v>
+      </c>
+      <c r="D45" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="6">
+        <v>579</v>
+      </c>
+      <c r="C46" s="6">
+        <v>27</v>
+      </c>
+      <c r="D46" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="6">
+        <v>631</v>
+      </c>
+      <c r="C47" s="6">
+        <v>30</v>
+      </c>
+      <c r="D47" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="6">
+        <v>727</v>
+      </c>
+      <c r="C48" s="6">
+        <v>29</v>
+      </c>
+      <c r="D48" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="6">
+        <v>793</v>
+      </c>
+      <c r="C49" s="6">
+        <v>18</v>
+      </c>
+      <c r="D49" s="6">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>